--- a/Sprint_1/Sprint_Backlog/SprintBacklog.xlsx
+++ b/Sprint_1/Sprint_Backlog/SprintBacklog.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
   <si>
     <t>User Story #1</t>
   </si>
@@ -221,6 +221,9 @@
   <si>
     <t>Dumitru, Ross,John</t>
   </si>
+  <si>
+    <t>ON TRACK</t>
+  </si>
 </sst>
 </file>
 
@@ -408,14 +411,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -429,6 +424,14 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -555,13 +558,13 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1352,8 +1355,8 @@
   <dimension ref="B1:AC133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1376,30 +1379,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
@@ -1468,7 +1471,7 @@
       <c r="C3" s="7">
         <v>6</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="16">
         <v>43857</v>
       </c>
       <c r="E3" s="8"/>
@@ -1654,7 +1657,7 @@
       <c r="C7" s="7">
         <v>5</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="16">
         <v>43857</v>
       </c>
       <c r="E7" s="8"/>
@@ -1790,7 +1793,7 @@
       <c r="C10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="16">
         <v>43859</v>
       </c>
       <c r="E10" s="8"/>
@@ -2028,7 +2031,7 @@
       <c r="C15" s="7">
         <v>5</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="16">
         <v>43857</v>
       </c>
       <c r="E15" s="8"/>
@@ -2257,25 +2260,25 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="2:29" s="17" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="12">
         <v>3</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="16">
         <v>43857</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
@@ -2377,25 +2380,25 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="2:29" s="17" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="12">
         <v>3</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="16">
         <v>43857</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
@@ -2604,7 +2607,7 @@
       <c r="C28" s="7">
         <v>3</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="16">
         <v>43857</v>
       </c>
       <c r="E28" s="8"/>
@@ -2634,36 +2637,36 @@
       <c r="AC28" s="4"/>
     </row>
     <row r="29" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="14">
         <v>4</v>
       </c>
-      <c r="H29" s="18">
-        <v>0</v>
-      </c>
-      <c r="I29" s="18">
-        <v>0</v>
-      </c>
-      <c r="J29" s="18">
-        <v>0</v>
-      </c>
-      <c r="K29" s="18">
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
-        <v>0</v>
-      </c>
-      <c r="M29" s="18">
+      <c r="H29" s="14">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14">
+        <v>0</v>
+      </c>
+      <c r="J29" s="14">
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0</v>
+      </c>
+      <c r="L29" s="14">
+        <v>0</v>
+      </c>
+      <c r="M29" s="14">
         <v>0</v>
       </c>
       <c r="N29" s="4"/>
@@ -2793,7 +2796,7 @@
         <v>59</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G32" s="9">
         <v>4</v>
@@ -2808,10 +2811,10 @@
         <v>4</v>
       </c>
       <c r="K32" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="9">
         <v>0</v>
@@ -2833,25 +2836,25 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="2:29" s="17" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+    <row r="33" spans="2:29" s="13" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="12">
         <v>4</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="16">
         <v>43857</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
     </row>
     <row r="34" spans="2:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
@@ -2963,7 +2966,7 @@
         <v>59</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G36" s="9">
         <v>2</v>
@@ -2975,13 +2978,13 @@
         <v>1</v>
       </c>
       <c r="J36" s="9">
+        <v>1</v>
+      </c>
+      <c r="K36" s="9">
         <v>0.5</v>
       </c>
-      <c r="K36" s="9">
-        <v>0</v>
-      </c>
       <c r="L36" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M36" s="9">
         <v>0</v>
@@ -3025,15 +3028,15 @@
       </c>
       <c r="J37" s="5">
         <f>SUM(J3:J36)</f>
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="K37" s="5">
         <f>SUM(K3:K36)</f>
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="L37" s="5">
         <f>SUM(L3:L36)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M37" s="5">
         <f>SUM(M3:M36)</f>
@@ -3087,30 +3090,30 @@
       <c r="AC38" s="4"/>
     </row>
     <row r="39" spans="2:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
@@ -5984,29 +5987,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
